--- a/data/extracted_data/raw/work/Rourke_etal_2021_SuppData.xlsx
+++ b/data/extracted_data/raw/work/Rourke_etal_2021_SuppData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9FB456-3882-4849-9230-81A3AD7BD1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29120" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PST Data Deadmans Harbour" sheetId="3" r:id="rId1"/>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
@@ -450,23 +451,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -483,7 +484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -500,7 +501,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -517,7 +518,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -534,7 +535,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -551,7 +552,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -568,7 +569,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -585,7 +586,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -602,7 +603,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -619,7 +620,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -636,7 +637,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -653,7 +654,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -670,7 +671,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -687,7 +688,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -704,7 +705,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -721,7 +722,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -738,7 +739,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -755,7 +756,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -772,7 +773,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -789,7 +790,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -806,7 +807,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -823,7 +824,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -840,7 +841,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -857,7 +858,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -874,7 +875,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -891,7 +892,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -908,7 +909,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -925,7 +926,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -942,7 +943,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -959,7 +960,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -976,7 +977,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -993,7 +994,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>20</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>20</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>20</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>20</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -4852,7 +4853,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>20</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>20</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>20</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>20</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>20</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>20</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>20</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>20</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>20</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>20</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>20</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -5788,7 +5789,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E313">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E313">
     <sortCondition ref="A2:A313"/>
     <sortCondition ref="B2:B313"/>
     <sortCondition ref="C2:C313"/>
@@ -5799,22 +5800,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -7361,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -7922,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -7973,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -8025,7 +8026,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E130">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E130">
     <sortCondition ref="A2:A130"/>
     <sortCondition ref="B2:B130"/>
     <sortCondition ref="C2:C130"/>
@@ -8036,21 +8037,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -8182,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8237,7 +8238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>6280</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -8369,7 +8370,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -8468,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -8644,7 +8645,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -8677,7 +8678,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>65440</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -8777,7 +8778,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C66">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
     <sortCondition ref="B2:B66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8785,20 +8786,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41289</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>41316</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41345</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>41366</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41373</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>41380</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>41387</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>41394</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>41401</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>41408</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>41417</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>41422</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>41429</v>
       </c>
@@ -8910,7 +8911,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>41436</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>41443</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>41450</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>41457</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>41464</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>41471</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>41478</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>41485</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>41492</v>
       </c>
@@ -8982,7 +8983,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>41499</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>41506</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>41513</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>41520</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>41527</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>41533</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>41541</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>41555</v>
       </c>
@@ -9046,7 +9047,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>41569</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>41592</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41618</v>
       </c>
@@ -9071,7 +9072,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
     <sortCondition ref="A2:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9079,22 +9080,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -9230,7 +9231,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -9264,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -9570,7 +9571,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -9672,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -10182,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -10216,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -10250,7 +10251,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -10284,7 +10285,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -10370,7 +10371,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E75">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E75">
     <sortCondition ref="A2:A75"/>
     <sortCondition ref="B2:B75"/>
     <sortCondition ref="C2:C75"/>
@@ -10380,23 +10381,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -10411,7 +10412,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -10425,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -10495,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -10579,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -10635,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -10691,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -10761,7 +10762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -10859,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -10887,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -10901,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -10929,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -10957,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -11027,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -11069,7 +11070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -11181,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -11195,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -11209,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -11223,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -11251,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -11307,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -11391,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -11419,7 +11420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -11461,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -11489,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -11503,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -11517,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -11587,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -11629,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -11657,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -11685,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -11714,7 +11715,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D94">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
     <sortCondition ref="A2:A94"/>
     <sortCondition ref="B2:B94"/>
     <sortCondition ref="C2:C94"/>
